--- a/medicine/Pharmacie/Dénomination_commune_internationale/Dénomination_commune_internationale.xlsx
+++ b/medicine/Pharmacie/Dénomination_commune_internationale/Dénomination_commune_internationale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9nomination_commune_internationale</t>
+          <t>Dénomination_commune_internationale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dénomination commune internationale (DCI) d'une substance active pharmacologique est un nom non commercial (c'est-à-dire distinct de tout nom de produit commercial) défini par l'Organisation mondiale de la santé, conçu pour être utilisable sans ambiguïté dans un grand nombre de langues. Le système des DCI existe depuis 1953 (il avait été précédé par une première tentative réunissant les États-Unis, le Royaume-uni, les pays nordiques et la France en 1945[réf. souhaitée]).
 Par rapport à la nomenclature de l'Union internationale de chimie pure et appliquée (UICPA), ces dénominations présentent l'avantage d'être plus courtes et plus simples à mémoriser, des segments clés (affixes) permettant de grouper les substances par familles thérapeutiques (de différentes classes pharmacologiques). Les emballages de médicaments portent souvent le nom de la substance active sous forme de DCI en dessous du nom commercial. Cependant, il peut arriver que le nom de substance inscrit ne soit pas la DCI mais une dénomination commune (DC) nationale (British Approved Name (BAN) ou United States Adopted Name (USAN)), laquelle varie d'un pays à l'autre. Les DC, comme les DCI, diffèrent des noms exacts donnés en chimie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9nomination_commune_internationale</t>
+          <t>Dénomination_commune_internationale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>État de la réglementation en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La directive 92/27/CEE recommande  l’usage des DCI pour l’ensemble des pays de l’Union européenne. Depuis le 5 juin 2002, les médecins généralistes sont tenus de rédiger 25 % des lignes de leurs prescriptions en dénomination commune internationale (DCI) [réf. souhaitée].
-Il est obligatoire depuis le 1er janvier 2015[1] pour les logiciels de prescription médicale et lors de toute prescription d'une spécialité pharmaceutique pour tout prescripteur de mentionner ses principes actifs désignés par leur dénomination commune internationale (DCI) recommandée par l'Organisation mondiale de la santé ou, à défaut, leur dénomination dans la pharmacopée.  
+Il est obligatoire depuis le 1er janvier 2015 pour les logiciels de prescription médicale et lors de toute prescription d'une spécialité pharmaceutique pour tout prescripteur de mentionner ses principes actifs désignés par leur dénomination commune internationale (DCI) recommandée par l'Organisation mondiale de la santé ou, à défaut, leur dénomination dans la pharmacopée.  
 ↑ « Décret n° 2014-1359 du 14 novembre 2014 relatif à l'obligation de certification des logiciels d'aide à la prescription médicale et des logiciels d'aide à la dispensation prévue à l'article L. 161-38 du code de la sécurité sociale | Legifrance », sur www.legifrance.gouv.fr (consulté le 31 mai 2020)
 </t>
         </is>
